--- a/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UDriver_3.1_eth.xlsx
+++ b/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UDriver_3.1_eth.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D49D7-A0AC-4BD1-896F-164DF0F01205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>Десятичная</t>
   </si>
@@ -172,9 +171,6 @@
     <t>установка скорости в поцентах</t>
   </si>
   <si>
-    <t>0-1000</t>
-  </si>
-  <si>
     <t>get Speed</t>
   </si>
   <si>
@@ -223,13 +219,19 @@
     <t>количества импулсов от запуска до остановки</t>
   </si>
   <si>
-    <t>Установка количества импулсов от запуска до остановки</t>
+    <t>10-32000</t>
+  </si>
+  <si>
+    <t>1-1000</t>
+  </si>
+  <si>
+    <t>Установка количества импулсов от запуска до остановки (4000 на оборот)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -843,23 +845,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -895,23 +880,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1087,30 +1055,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="15"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -1118,7 +1086,7 @@
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
     </row>
-    <row r="3" spans="1:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1124,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1170,12 +1138,12 @@
         <v>49</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="59.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1183,18 +1151,18 @@
         <v>3</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>52</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="73.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1202,18 +1170,18 @@
         <v>4</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="22">
-        <v>65000</v>
+        <v>68</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1221,18 +1189,18 @@
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="E8" s="22">
-        <v>65000</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -1240,18 +1208,18 @@
         <v>6</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1259,18 +1227,18 @@
         <v>7</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1278,10 +1246,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>23</v>
@@ -1289,7 +1257,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -1297,10 +1265,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>23</v>
@@ -1308,7 +1276,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1316,10 +1284,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>62</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>63</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>23</v>
@@ -1327,7 +1295,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1335,10 +1303,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>65</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>23</v>
@@ -1346,7 +1314,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1359,7 +1327,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1372,7 +1340,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +1411,7 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
     </row>
-    <row r="18" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +1424,7 @@
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -1469,7 +1437,7 @@
       <c r="F19" s="36"/>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
@@ -1482,7 +1450,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1495,7 +1463,7 @@
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1476,7 @@
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
@@ -1521,7 +1489,7 @@
       <c r="F23" s="36"/>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
@@ -1534,7 +1502,7 @@
       <c r="F24" s="36"/>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1547,7 +1515,7 @@
       <c r="F25" s="36"/>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
@@ -1560,7 +1528,7 @@
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>40</v>
       </c>
@@ -1573,7 +1541,7 @@
       <c r="F27" s="36"/>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
@@ -1586,7 +1554,7 @@
       <c r="F28" s="36"/>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -1599,7 +1567,7 @@
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
     </row>
-    <row r="30" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>33</v>
       </c>
@@ -1612,7 +1580,7 @@
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
@@ -1625,7 +1593,7 @@
       <c r="F31" s="36"/>
       <c r="G31" s="37"/>
     </row>
-    <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1638,7 +1606,7 @@
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
@@ -1651,7 +1619,7 @@
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
@@ -1664,7 +1632,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>39</v>
       </c>
@@ -1677,7 +1645,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>38</v>
       </c>
@@ -1690,7 +1658,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>41</v>
       </c>
@@ -1703,7 +1671,7 @@
       <c r="F37" s="36"/>
       <c r="G37" s="37"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
@@ -1716,7 +1684,7 @@
       <c r="F38" s="36"/>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
@@ -1729,7 +1697,7 @@
       <c r="F39" s="36"/>
       <c r="G39" s="37"/>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>35</v>
       </c>
@@ -1742,7 +1710,7 @@
       <c r="F40" s="36"/>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>36</v>
       </c>
@@ -1755,7 +1723,7 @@
       <c r="F41" s="36"/>
       <c r="G41" s="37"/>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>37</v>
       </c>
@@ -1768,7 +1736,7 @@
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>43</v>
       </c>
@@ -1781,7 +1749,7 @@
       <c r="F43" s="36"/>
       <c r="G43" s="37"/>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
@@ -1794,7 +1762,7 @@
       <c r="F44" s="36"/>
       <c r="G44" s="37"/>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>45</v>
       </c>
@@ -1807,7 +1775,7 @@
       <c r="F45" s="36"/>
       <c r="G45" s="37"/>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>33</v>
       </c>
@@ -1820,7 +1788,7 @@
       <c r="F46" s="36"/>
       <c r="G46" s="37"/>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>34</v>
       </c>
@@ -1833,7 +1801,7 @@
       <c r="F47" s="36"/>
       <c r="G47" s="37"/>
     </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>35</v>
       </c>
@@ -1846,7 +1814,7 @@
       <c r="F48" s="36"/>
       <c r="G48" s="37"/>
     </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>36</v>
       </c>
@@ -1873,12 +1841,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1886,12 +1854,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UDriver_3.1_eth.xlsx
+++ b/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UDriver_3.1_eth.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Десятичная</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>Установка количества импулсов от запуска до остановки (4000 на оборот)</t>
+  </si>
+  <si>
+    <t>set DeAcceleration</t>
+  </si>
+  <si>
+    <t>get DeAcceleration</t>
+  </si>
+  <si>
+    <t>Установка торможения в процентах</t>
+  </si>
+  <si>
+    <t>Чтение торможения в процентах</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1071,7 @@
   <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,9 +1333,15 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
     </row>
@@ -1334,9 +1352,15 @@
       <c r="B16" s="6">
         <v>13</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
     </row>

--- a/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UDriver_3.1_eth.xlsx
+++ b/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UDriver_3.1_eth.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Десятичная</t>
   </si>
@@ -228,16 +228,34 @@
     <t>Установка количества импулсов от запуска до остановки (4000 на оборот)</t>
   </si>
   <si>
-    <t>set DeAcceleration</t>
-  </si>
-  <si>
-    <t>get DeAcceleration</t>
-  </si>
-  <si>
     <t>Установка торможения в процентах</t>
   </si>
   <si>
     <t>Чтение торможения в процентах</t>
+  </si>
+  <si>
+    <t>get statusTarget</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>set Time Out</t>
+  </si>
+  <si>
+    <t>set Slowdown</t>
+  </si>
+  <si>
+    <t>get Slowdown</t>
+  </si>
+  <si>
+    <t>Если достигли цели вернет 1 
+еше движется 0 
+ошибка движения 2
+ошибка направления 3</t>
+  </si>
+  <si>
+    <t>get Time Out</t>
   </si>
 </sst>
 </file>
@@ -313,42 +331,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -378,172 +366,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -563,34 +385,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,30 +406,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -642,122 +414,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1070,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,306 +777,300 @@
     <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="7" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="15"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" ht="59.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" ht="73.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="C13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
-        <v>8</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="C14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="13">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="C15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
-        <v>10</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="C16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="13">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
-        <v>11</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>12</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6">
-        <v>13</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7">
-        <v>14</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="37"/>
+      <c r="C17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1435,421 +1126,437 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
     </row>
-    <row r="18" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="12">
         <v>15</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="C18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="13">
         <v>16</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="C19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="12">
         <v>17</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="13">
         <v>18</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="12">
         <v>19</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="12">
         <v>20</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="13">
         <v>21</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="12">
         <v>22</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="12">
         <v>23</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="13">
         <v>24</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="12">
         <v>25</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="12">
         <v>26</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="12">
         <v>27</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="13">
         <v>28</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="12">
         <v>29</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="12">
         <v>30</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="12">
         <v>31</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="12">
         <v>32</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="12">
         <v>33</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="12">
         <v>34</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="12">
         <v>35</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="13">
         <v>36</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="12">
         <v>37</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="12">
         <v>38</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="12">
         <v>39</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="12">
         <v>40</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="37"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="12">
         <v>41</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="12">
         <v>42</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="12">
         <v>43</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="13">
         <v>44</v>
       </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="37"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="12">
         <v>45</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="37"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="12">
         <v>46</v>
       </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
